--- a/Statistics/50m Rygg_statistics.xlsx
+++ b/Statistics/50m Rygg_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5131,25 +5131,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>44,66</t>
+          <t>39,03</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>31.10.2016</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5166,25 +5166,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>39,23</t>
+          <t>44,66</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5201,25 +5201,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>39,57</t>
+          <t>39,23</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5236,25 +5236,25 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>39,66</t>
+          <t>39,57</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5271,25 +5271,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>39,69</t>
+          <t>39,66</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5306,12 +5306,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Oscar Kvaløy Tiller</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>39,75</t>
+          <t>39,69</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>20.11.2021</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5341,25 +5341,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Oscar Kvaløy Tiller</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>45,50</t>
+          <t>39,75</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10.10.2010</t>
+          <t>20.11.2021</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5376,20 +5376,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>40,06</t>
+          <t>45,50</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>27.04.2024</t>
+          <t>10.10.2010</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5411,12 +5411,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>40,02</t>
+          <t>40,06</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>27.04.2024</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,25 +5446,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>40,20</t>
+          <t>40,02</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>29.02.2020</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5481,25 +5481,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>40,20</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5516,25 +5516,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>46,27</t>
+          <t>46,16</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>28.02.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5551,20 +5551,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>46,27</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>28.02.2009</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5586,25 +5586,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>41,15</t>
+          <t>46,79</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5621,25 +5621,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>41,36</t>
+          <t>41,15</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>21.03.2015</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5656,12 +5656,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>47,22</t>
+          <t>41,36</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>13.09.2015</t>
+          <t>21.03.2015</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,20 +5691,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Bjørn Pedersen</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>41,48</t>
+          <t>47,22</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>28.03.2025</t>
+          <t>13.09.2015</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5726,20 +5726,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Voormolen Gutierrez Victor</t>
+          <t>Bjørn Pedersen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>41,96</t>
+          <t>41,48</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>28.03.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5761,12 +5761,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sondre Grimsmo</t>
+          <t>Voormolen Gutierrez Victor</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>41,98</t>
+          <t>41,96</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>17.09.2006</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5796,25 +5796,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Sondre Grimsmo</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>42,07</t>
+          <t>41,98</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>17.09.2006</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5831,25 +5831,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>42,31</t>
+          <t>42,07</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>02.10.2022</t>
+          <t>19.10.2024</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5866,20 +5866,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Liem Emily Liv</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>48,75</t>
+          <t>42,31</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>02.10.2022</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5901,20 +5901,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ingeborg Strandenes</t>
+          <t>Liem Emily Liv</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>48,92</t>
+          <t>48,75</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5936,20 +5936,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Ingeborg Strandenes</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>48,92</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.03.2011</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5971,25 +5971,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Njål Høie</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>43,72</t>
+          <t>43,64</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>09.11.2013</t>
+          <t>19.03.2011</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6006,25 +6006,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Angelico Mikkel Andersen</t>
+          <t>Njål Høie</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>43,78</t>
+          <t>43,72</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>29.02.2020</t>
+          <t>09.11.2013</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6041,25 +6041,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Angelico Mikkel Andersen</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>50,11</t>
+          <t>43,78</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>04.03.2017</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6076,12 +6076,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>50,15</t>
+          <t>50,11</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>04.03.2017</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6111,12 +6111,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>50,19</t>
+          <t>50,15</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6124,12 +6124,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10.11.2019</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6146,25 +6146,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>44,11</t>
+          <t>50,19</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>10.11.2019</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6181,20 +6181,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>44,32</t>
+          <t>44,11</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6216,20 +6216,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>44,78</t>
+          <t>44,32</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6251,20 +6251,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>44,94</t>
+          <t>44,78</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6286,25 +6286,25 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Nicol Bauer Asbøll</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>51,34</t>
+          <t>44,94</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>10.11.2019</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6321,25 +6321,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Maiken Belsvik</t>
+          <t>Nicol Bauer Asbøll</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>51,54</t>
+          <t>51,34</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>10.11.2019</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6356,12 +6356,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Maiken Belsvik</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>45,08</t>
+          <t>51,54</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6391,12 +6391,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Kristin Stallvik</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>51,60</t>
+          <t>45,08</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>18.01.2025</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6426,25 +6426,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Kristin Stallvik</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>45,67</t>
+          <t>51,60</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>02.04.2022</t>
+          <t>18.01.2025</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6461,20 +6461,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>45,96</t>
+          <t>45,67</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>01.12.2018</t>
+          <t>02.04.2022</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6496,25 +6496,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>46,22</t>
+          <t>45,96</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>01.12.2018</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6531,25 +6531,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>August Sivertsen Nestgaard</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>46,53</t>
+          <t>46,22</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>02.12.2017</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6566,20 +6566,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>August Sivertsen Nestgaard</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>46,68</t>
+          <t>46,53</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>02.12.2017</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6601,25 +6601,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>47,07</t>
+          <t>46,68</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6636,12 +6636,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>47,13</t>
+          <t>47,07</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -6649,12 +6649,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>01.10.2011</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6671,25 +6671,25 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Robert Andre Skarø</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>47,44</t>
+          <t>47,13</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>21.04.2018</t>
+          <t>01.10.2011</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6706,25 +6706,25 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Robert Andre Skarø</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>47,56</t>
+          <t>47,44</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>21.04.2018</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6741,25 +6741,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>André Prestmo-Edvardsen</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>47,74</t>
+          <t>47,56</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6776,12 +6776,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kasper Steen Jensen</t>
+          <t>André Prestmo-Edvardsen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>47,67</t>
+          <t>47,74</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6811,12 +6811,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Kasper Steen Jensen</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>47,73</t>
+          <t>47,67</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6846,20 +6846,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>54,91</t>
+          <t>47,73</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>01.03.2008</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6881,25 +6881,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>48,23</t>
+          <t>54,91</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>03.12.2005</t>
+          <t>01.03.2008</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6916,25 +6916,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>49,21</t>
+          <t>48,23</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>03.12.2005</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6951,25 +6951,25 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>49,52</t>
+          <t>49,21</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6986,25 +6986,25 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Henrik Sumstad</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>49,88</t>
+          <t>49,52</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7021,25 +7021,25 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Henrik Sumstad</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>50,08</t>
+          <t>49,88</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>29.02.2020</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7056,12 +7056,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Agnes Agersborg</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>57,16</t>
+          <t>50,08</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -7069,12 +7069,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>11.10.2009</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7091,20 +7091,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vegard Olsvold</t>
+          <t>Agnes Agersborg</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>50,28</t>
+          <t>57,16</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>11.10.2009</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7126,20 +7126,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Filip Heuch</t>
+          <t>Vegard Olsvold</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>50,67</t>
+          <t>50,28</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7161,20 +7161,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Filip Heuch</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>50,83</t>
+          <t>50,67</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7196,20 +7196,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>51,06</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7231,20 +7231,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sivert Risnes</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>51,22</t>
+          <t>51,06</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7266,12 +7266,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Sivert Risnes</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>51,22</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7279,12 +7279,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>21.10.2018</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7301,25 +7301,25 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Emil Gustafson</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>51,35</t>
+          <t>51,12</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>21.10.2018</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7336,16 +7336,16 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ingolf Nicholay Stenskrog</t>
+          <t>Emil Gustafson</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>51,91</t>
+          <t>51,35</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -7371,20 +7371,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Ingolf Nicholay Stenskrog</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>52,43</t>
+          <t>51,91</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7406,20 +7406,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>52,74</t>
+          <t>52,43</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7441,25 +7441,25 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Markus Indergård Holm</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>53,12</t>
+          <t>52,74</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>19.04.2008</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7476,20 +7476,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Markus Indergård Holm</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1.00,70</t>
+          <t>53,12</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>19.04.2008</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7511,25 +7511,25 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Hyun Woo Kim</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>53,80</t>
+          <t>1.00,70</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7546,25 +7546,25 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Lukas Katekawa Theting</t>
+          <t>Hyun Woo Kim</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>54,93</t>
+          <t>53,80</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>02.03.2019</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pirbadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7581,12 +7581,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Leon Moen Aasrud</t>
+          <t>Lukas Katekawa Theting</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>54,84</t>
+          <t>54,93</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -7594,12 +7594,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>02.03.2019</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Pirbadet</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7616,25 +7616,25 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mikkel Fenstad</t>
+          <t>Leon Moen Aasrud</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>55,10</t>
+          <t>54,84</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7651,25 +7651,25 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Jostein Andreas Skjørholm</t>
+          <t>Mikkel Fenstad</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>55,48</t>
+          <t>55,10</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>12.11.2005</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7686,20 +7686,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Jostein Andreas Skjørholm</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>55,62</t>
+          <t>55,48</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10.11.2012</t>
+          <t>12.11.2005</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7721,25 +7721,25 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>57,09</t>
+          <t>55,62</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>12.01.2013</t>
+          <t>10.11.2012</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7756,20 +7756,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Jørgen Norvik Skeide</t>
+          <t>Theodor Hoff</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>57,24</t>
+          <t>57,09</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>09.10.2005</t>
+          <t>12.01.2013</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7791,12 +7791,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Lars Berg Lerstad</t>
+          <t>Jørgen Norvik Skeide</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>57,12</t>
+          <t>57,24</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>09.10.2005</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7826,12 +7826,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Tom Krogen Johansen</t>
+          <t>Lars Berg Lerstad</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>57,22</t>
+          <t>57,12</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>01.04.2006</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7861,12 +7861,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Theo Sjøhelle</t>
+          <t>Tom Krogen Johansen</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>57,14</t>
+          <t>57,22</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>01.04.2006</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7896,12 +7896,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Hauk Vold Kirkvold</t>
+          <t>Theo Sjøhelle</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>57,41</t>
+          <t>57,14</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>20.11.2021</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7931,20 +7931,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Hauk Vold Kirkvold</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>57,78</t>
+          <t>57,41</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>08.11.2008</t>
+          <t>20.11.2021</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7966,25 +7966,25 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>57,89</t>
+          <t>57,78</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>07.03.2015</t>
+          <t>08.11.2008</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8001,12 +8001,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>57,86</t>
+          <t>57,89</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>19.01.2018</t>
+          <t>07.03.2015</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8036,25 +8036,25 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jo Svendsen</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>57,86</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>30.09.2019</t>
+          <t>19.01.2018</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8071,25 +8071,25 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ellen Sofie Moen</t>
+          <t>Jo Svendsen</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1.06,91</t>
+          <t>58,44</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>03.10.2021</t>
+          <t>30.09.2019</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8106,12 +8106,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Ellen Sofie Moen</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>58,81</t>
+          <t>1.06,91</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>03.10.2021</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -8141,12 +8141,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Magnus Hope</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>58,61</t>
+          <t>58,81</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8176,25 +8176,25 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Martin Alterskjær Johansen</t>
+          <t>Magnus Hope</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>59,06</t>
+          <t>58,61</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>02.12.2006</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8211,25 +8211,25 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Meriam Kaas Kayhan</t>
+          <t>Martin Alterskjær Johansen</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1.07,94</t>
+          <t>59,06</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>02.12.2006</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8246,12 +8246,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Riccardo Manum</t>
+          <t>Meriam Kaas Kayhan</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>59,40</t>
+          <t>1.07,94</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -8281,25 +8281,25 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nikolas Kristiansen</t>
+          <t>Riccardo Manum</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1.01,05</t>
+          <t>59,40</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8316,25 +8316,25 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Alexander Andersen</t>
+          <t>Nikolas Kristiansen</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1.01,86</t>
+          <t>1.01,05</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -8351,12 +8351,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Daniel Karlsen</t>
+          <t>Alexander Andersen</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1.01,81</t>
+          <t>1.01,86</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -8386,20 +8386,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Larsen Henrik Hestvik</t>
+          <t>Daniel Karlsen</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1.03,03</t>
+          <t>1.01,81</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>07.03.2009</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -8421,25 +8421,25 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Isak Andrè Rausandhaug-Rise</t>
+          <t>Larsen Henrik Hestvik</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1.06,51</t>
+          <t>1.03,03</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>07.03.2009</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8456,25 +8456,25 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ragnar Kristoffer Heier Hovd</t>
+          <t>Isak Andrè Rausandhaug-Rise</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1.12,95</t>
+          <t>1.06,51</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>09.10.2005</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -8491,12 +8491,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aleksander Belsvik Skarbø</t>
+          <t>Ragnar Kristoffer Heier Hovd</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1.13,00</t>
+          <t>1.12,95</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>09.10.2005</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8526,25 +8526,25 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Vegard Olsen</t>
+          <t>Aleksander Belsvik Skarbø</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1.14,66</t>
+          <t>1.13,00</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>05.03.2011</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8561,16 +8561,16 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Håvard Hægstad Johnsen</t>
+          <t>Vegard Olsen</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1.17,09</t>
+          <t>1.14,66</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -8596,33 +8596,68 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>Håvard Hægstad Johnsen</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1.17,09</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>23</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>05.03.2011</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Verdal</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
           <t>Casper Dahle-Øfsti</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>1.18,79</t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="C235" t="n">
         <v>22</v>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>12.01.2013</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -8639,7 +8674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11277,25 +11312,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>40,56</t>
+          <t>40,18</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>09.07.2017</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -11312,20 +11347,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Magnus Svindland Næsgaard</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>40,66</t>
+          <t>40,56</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -11347,16 +11382,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Magnus Svindland Næsgaard</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>40,81</t>
+          <t>40,66</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -11382,20 +11417,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>40,93</t>
+          <t>40,81</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -11417,25 +11452,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>41,61</t>
+          <t>40,93</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -11452,16 +11487,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>41,86</t>
+          <t>41,61</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -11487,20 +11522,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>41,97</t>
+          <t>41,86</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11.06.2006</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -11522,25 +11557,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>43,18</t>
+          <t>41,97</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>11.06.2006</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -11557,25 +11592,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>43,77</t>
+          <t>43,18</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -11592,25 +11627,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44,49</t>
+          <t>43,77</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -11627,25 +11662,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>51,36</t>
+          <t>44,49</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>01.11.2008</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -11662,25 +11697,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>45,20</t>
+          <t>51,36</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>01.11.2008</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -11697,25 +11732,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Håkon Emil Øien</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>45,61</t>
+          <t>45,20</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -11732,12 +11767,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ivan Erikovitch Alvestad</t>
+          <t>Håkon Emil Øien</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>45,59</t>
+          <t>45,61</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -11745,12 +11780,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11767,16 +11802,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Iselin Græsli Skaret</t>
+          <t>Ivan Erikovitch Alvestad</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>54,17</t>
+          <t>45,59</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -11802,20 +11837,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Iselin Græsli Skaret</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47,87</t>
+          <t>54,17</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>09.06.2017</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11837,20 +11872,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>47,87</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>09.06.2017</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11872,25 +11907,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>49,47</t>
+          <t>48,42</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -11907,25 +11942,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>49,61</t>
+          <t>49,47</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14.06.2009</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -11942,25 +11977,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>50,10</t>
+          <t>49,61</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>14.06.2009</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11977,25 +12012,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Elias Lien</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>52,77</t>
+          <t>50,10</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>08.06.2018</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -12012,25 +12047,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Setareh Kulsum Sigrid Feyzi</t>
+          <t>Elias Lien</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.00,91</t>
+          <t>52,77</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>08.06.2018</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -12047,33 +12082,68 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>Setareh Kulsum Sigrid Feyzi</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.00,91</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>85</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>17.04.2016</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Namsos</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>50m</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>1.01,40</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C99" t="n">
         <v>56</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>19.04.2015</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Namsos</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>50m</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -12090,7 +12160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17108,12 +17178,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Camila Dorao</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>39,03</t>
+          <t>44,60</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -17121,7 +17191,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>31.10.2016</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -17143,25 +17213,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Camila Dorao</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>44,60</t>
+          <t>44,65</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>26.10.2014</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -17178,25 +17248,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Ola vatn Gundersen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>44,65</t>
+          <t>39,19</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>26.10.2014</t>
+          <t>01.12.2018</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -17213,25 +17283,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ola vatn Gundersen</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>39,19</t>
+          <t>45,02</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>01.12.2018</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -17248,20 +17318,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Hedda Gätzschmann</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>45,02</t>
+          <t>45,55</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -17283,25 +17353,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hedda Gätzschmann</t>
+          <t>Ingrid Johansen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>45,55</t>
+          <t>46,01</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>29.10.2005</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -17318,25 +17388,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ingrid Johansen</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>46,01</t>
+          <t>46,47</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>29.10.2005</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -17353,16 +17423,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>46,47</t>
+          <t>46,72</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -17388,12 +17458,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Aurora Marken Fredriksen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>46,72</t>
+          <t>46,77</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -17401,12 +17471,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>22.10.2022</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -17423,25 +17493,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Aurora Marken Fredriksen</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>46,77</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>22.10.2022</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -17458,20 +17528,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>47,30</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>02.10.2022</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -17493,12 +17563,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Nora Elvira Wengstad Jakobsen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>47,30</t>
+          <t>47,22</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -17506,7 +17576,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>02.10.2022</t>
+          <t>18.01.2019</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -17528,12 +17598,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nora Elvira Wengstad Jakobsen</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>47,22</t>
+          <t>47,27</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -17541,7 +17611,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>18.01.2019</t>
+          <t>21.01.2012</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -17563,12 +17633,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Amalie Solvoll</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>47,27</t>
+          <t>47,31</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -17576,12 +17646,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>21.01.2012</t>
+          <t>07.04.2018</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -17598,25 +17668,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Amalie Solvoll</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>47,31</t>
+          <t>47,37</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>07.04.2018</t>
+          <t>17.02.2019</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -17633,25 +17703,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>47,37</t>
+          <t>47,97</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>17.02.2019</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -17668,25 +17738,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>47,97</t>
+          <t>48,68</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -17703,20 +17773,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Live Furmyr Johansen</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>48,68</t>
+          <t>48,98</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>05.12.2021</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17738,20 +17808,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Live Furmyr Johansen</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>48,98</t>
+          <t>49,21</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>05.12.2021</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -17773,20 +17843,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Hedda Thorgaard</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>49,21</t>
+          <t>49,48</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>05.12.2021</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17808,25 +17878,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hedda Thorgaard</t>
+          <t>Julie Gilbu</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>49,48</t>
+          <t>49,69</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>05.12.2021</t>
+          <t>17.10.2015</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -17843,25 +17913,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Julie Gilbu</t>
+          <t>Else Malin Meidal</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>49,69</t>
+          <t>49,78</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>17.10.2015</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17878,25 +17948,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Else Malin Meidal</t>
+          <t>Johanne Dahlhaug</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>49,78</t>
+          <t>50,35</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>05.03.2011</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17913,25 +17983,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Johanne Dahlhaug</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>50,35</t>
+          <t>50,55</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>05.03.2011</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17948,20 +18018,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>50,55</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17983,20 +18053,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>50,96</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -18018,12 +18088,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>50,96</t>
+          <t>51,00</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -18031,7 +18101,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>21.01.2012</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -18053,12 +18123,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Lena Sofie Hammer</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>51,00</t>
+          <t>50,97</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -18066,7 +18136,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>21.01.2012</t>
+          <t>18.09.2005</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -18088,20 +18158,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lena Sofie Hammer</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>51,16</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>18.09.2005</t>
+          <t>04.03.2023</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -18123,20 +18193,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>51,16</t>
+          <t>51,41</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>04.03.2023</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -18158,25 +18228,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Jassmitha Ajeethsing</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>51,41</t>
+          <t>51,73</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>20.11.2021</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18193,25 +18263,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Jassmitha Ajeethsing</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>51,73</t>
+          <t>52,03</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20.11.2021</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18228,20 +18298,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>52,03</t>
+          <t>52,17</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>17.01.2025</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -18263,12 +18333,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>52,17</t>
+          <t>52,19</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -18276,12 +18346,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>17.01.2025</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18298,25 +18368,25 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>52,19</t>
+          <t>52,27</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18333,12 +18403,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Malin Sandstad</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>52,27</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -18346,12 +18416,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18368,25 +18438,25 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Malin Sandstad</t>
+          <t>Live Eilertsen-Granbo</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>52,30</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>02.03.2019</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Pirbadet</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18403,25 +18473,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Live Eilertsen-Granbo</t>
+          <t>Julia Lervold Høffler</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>52,62</t>
+          <t>52,93</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>02.03.2019</t>
+          <t>05.03.2011</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Pirbadet</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18438,25 +18508,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Julia Lervold Høffler</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>52,93</t>
+          <t>53,98</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>05.03.2011</t>
+          <t>21.09.2008</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -18473,25 +18543,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>53,98</t>
+          <t>54,09</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>21.09.2008</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -18508,25 +18578,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>54,09</t>
+          <t>55,68</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -18543,20 +18613,20 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Mia Meldal Tjøstheim</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>55,68</t>
+          <t>55,78</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>07.03.2015</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -18578,16 +18648,16 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mia Meldal Tjøstheim</t>
+          <t>Andrea Smalø Moen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>55,78</t>
+          <t>56,08</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18613,12 +18683,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Andrea Smalø Moen</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>56,08</t>
+          <t>55,97</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -18626,7 +18696,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>07.03.2015</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -18648,20 +18718,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>55,97</t>
+          <t>56,34</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -18683,25 +18753,25 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>56,34</t>
+          <t>57,38</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>03.12.2011</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -18718,20 +18788,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Emma Hilmarsen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>57,38</t>
+          <t>58,14</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>03.12.2011</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -18753,25 +18823,25 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Emma Hilmarsen</t>
+          <t>Regine Nysæther</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>58,14</t>
+          <t>58,36</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>20.04.2013</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -18788,12 +18858,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Regine Nysæther</t>
+          <t>Alvhilde Ulfnes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>58,36</t>
+          <t>58,58</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -18801,12 +18871,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -18823,25 +18893,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Alvhilde Ulfnes</t>
+          <t>Elena Fyhn Leida</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>58,58</t>
+          <t>58,95</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -18858,25 +18928,25 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Elena Fyhn Leida</t>
+          <t>Ida Fjellvær</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>58,95</t>
+          <t>59,26</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -18893,12 +18963,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ida Fjellvær</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>59,26</t>
+          <t>59,31</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -18928,25 +18998,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Nora Grande Bjerkan</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>59,31</t>
+          <t>59,71</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -18963,20 +19033,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Nora Grande Bjerkan</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>59,71</t>
+          <t>1.00,28</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -18998,20 +19068,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kristina Bragadottir</t>
+          <t>Eline Nergård Wilhelmsen</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1.00,28</t>
+          <t>1.00,95</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -19033,25 +19103,25 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Eline Nergård Wilhelmsen</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1.00,95</t>
+          <t>1.01,27</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -19068,25 +19138,25 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>Oda Rudi Tanem</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1.01,27</t>
+          <t>1.01,85</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -19103,20 +19173,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Oda Rudi Tanem</t>
+          <t>esma zara muslibegovic-jelin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1.01,85</t>
+          <t>1.02,14</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -19138,20 +19208,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>esma zara muslibegovic-jelin</t>
+          <t>Aida Sofie Feyzi</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1.02,14</t>
+          <t>1.02,66</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>28.10.2018</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -19173,12 +19243,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aida Sofie Feyzi</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1.02,66</t>
+          <t>1.02,61</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -19186,7 +19256,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>28.10.2018</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -19208,12 +19278,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.02,61</t>
+          <t>1.02,78</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -19221,12 +19291,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>10.11.2012</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -19243,25 +19313,25 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Ella Katrine Lind Bøckman</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1.02,78</t>
+          <t>1.05,74</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>10.11.2012</t>
+          <t>02.03.2019</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Pirbadet</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -19278,25 +19348,25 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Ella Katrine Lind Bøckman</t>
+          <t>Sanna Beckstrøm</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1.05,74</t>
+          <t>1.08,81</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>02.03.2019</t>
+          <t>17.04.2005</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Pirbadet</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -19313,25 +19383,25 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sanna Beckstrøm</t>
+          <t>Emre Stafsnes Califano</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1.08,81</t>
+          <t>1.09,68</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>17.04.2005</t>
+          <t>29.02.2020</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -19340,41 +19410,6 @@
         </is>
       </c>
       <c r="G207" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Emre Stafsnes Califano</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>1.09,68</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>31</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>29.02.2020</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Levanger</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -19391,7 +19426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22764,12 +22799,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>40,18</t>
+          <t>45,80</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -22777,12 +22812,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>09.07.2017</t>
+          <t>07.09.2018</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Kranj</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -22799,25 +22834,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>45,80</t>
+          <t>45,99</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>07.09.2018</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Kranj</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -22834,16 +22869,16 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>45,99</t>
+          <t>46,24</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -22869,16 +22904,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -22904,20 +22939,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>47,32</t>
+          <t>48,03</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>08.06.2018</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -22939,12 +22974,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>48,03</t>
+          <t>48,11</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -22952,12 +22987,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>08.06.2018</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22974,25 +23009,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>48,11</t>
+          <t>48,37</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -23009,25 +23044,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>48,37</t>
+          <t>48,40</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -23044,25 +23079,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>48,40</t>
+          <t>42,66</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>14.06.2019</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -23079,16 +23114,16 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>42,66</t>
+          <t>50,20</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -23114,25 +23149,25 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>50,20</t>
+          <t>50,40</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -23149,25 +23184,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>50,40</t>
+          <t>50,62</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>13.06.2025</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -23184,20 +23219,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>51,05</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13.06.2025</t>
+          <t>09.06.2017</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -23219,25 +23254,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>51,05</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>09.06.2017</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -23254,20 +23289,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>51,81</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -23289,25 +23324,25 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>51,81</t>
+          <t>52,04</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>01.11.2008</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -23324,25 +23359,25 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52,04</t>
+          <t>52,15</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>01.11.2008</t>
+          <t>14.06.2024</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -23359,16 +23394,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52,15</t>
+          <t>53,65</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -23394,25 +23429,25 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>53,65</t>
+          <t>55,69</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>14.06.2024</t>
+          <t>09.06.2017</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -23429,20 +23464,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>55,69</t>
+          <t>58,72</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>09.06.2017</t>
+          <t>14.06.2019</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -23456,41 +23491,6 @@
         </is>
       </c>
       <c r="G116" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>58,72</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>64</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>14.06.2019</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Hamar</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
